--- a/vs/kifield/Debug/KiCAD_Fields.xlsx
+++ b/vs/kifield/Debug/KiCAD_Fields.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\KiField\vs\kifield\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="25875" windowHeight="11310"/>
   </bookViews>
@@ -123,7 +128,7 @@
     <t>pcb_PS</t>
   </si>
   <si>
-    <t>pcb_ABCD</t>
+    <t>mat_ABCD</t>
   </si>
 </sst>
 </file>
@@ -349,9 +354,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,9 +391,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,16 +417,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,6 +449,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -492,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,7 +747,7 @@
   <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,229 +772,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="14"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="14"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="26"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="24"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="27"/>
-      <c r="F10" s="23" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/vs/kifield/Debug/KiCAD_Fields.xlsx
+++ b/vs/kifield/Debug/KiCAD_Fields.xlsx
@@ -128,7 +128,7 @@
     <t>pcb_PS</t>
   </si>
   <si>
-    <t>mat_ABCD</t>
+    <t>MAT?</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,11 +925,11 @@
       <c r="P6" s="16"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="D7" s="14"/>
       <c r="F7" s="13"/>
       <c r="G7" s="3"/>
       <c r="H7" s="16"/>

--- a/vs/kifield/Debug/KiCAD_Fields.xlsx
+++ b/vs/kifield/Debug/KiCAD_Fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="25875" windowHeight="11310"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="25875" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,31 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
-  <si>
-    <t>F 0</t>
-  </si>
-  <si>
-    <t>F 1</t>
-  </si>
-  <si>
-    <t>F 2</t>
-  </si>
-  <si>
-    <t>F 3</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>footprint</t>
-  </si>
-  <si>
-    <t>datasheet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Поз.обозначение</t>
   </si>
@@ -104,38 +80,54 @@
     <t xml:space="preserve">Типоразмер </t>
   </si>
   <si>
-    <t xml:space="preserve">Ном. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Откл,% </t>
+    <t>Наименование 1С8 УПП</t>
+  </si>
+  <si>
+    <t>Таблица соответствия на компоненты</t>
+  </si>
+  <si>
+    <t>Номинал</t>
+  </si>
+  <si>
+    <t>MAT1</t>
+  </si>
+  <si>
+    <t>Напряжение</t>
   </si>
   <si>
     <t xml:space="preserve">ТКЕ/ТКС </t>
   </si>
   <si>
-    <t xml:space="preserve">Напр. </t>
-  </si>
-  <si>
-    <t>Наименование 1С8 УПП</t>
-  </si>
-  <si>
-    <t>ПЭ3 СП</t>
-  </si>
-  <si>
-    <t>Таблица соответствия на компоненты</t>
-  </si>
-  <si>
-    <t>pcb_PS</t>
-  </si>
-  <si>
-    <t>MAT?</t>
+    <t>pcb</t>
+  </si>
+  <si>
+    <t>ПЭ3, СП</t>
+  </si>
+  <si>
+    <t>F 0
+ref</t>
+  </si>
+  <si>
+    <t>F 1
+value</t>
+  </si>
+  <si>
+    <t>F 2
+footprint</t>
+  </si>
+  <si>
+    <t>F 3
+datasheet</t>
+  </si>
+  <si>
+    <t>Откл.%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,17 +137,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -175,18 +173,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -195,16 +193,144 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -214,15 +340,21 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -232,17 +364,25 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -254,185 +394,120 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,6 +518,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
@@ -744,262 +820,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P10"/>
+  <dimension ref="B1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
+    <row r="1" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="27" t="s">
+    <row r="2" spans="2:16" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="2:16" s="14" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="O3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="P3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>31</v>
+      <c r="P4" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="16"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="16"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="16"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="16"/>
+      <c r="P8" s="19"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="24"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="F10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+    <row r="9" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G10:P10"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
